--- a/pandas_sample/aggregate/input/sample.xlsx
+++ b/pandas_sample/aggregate/input/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonon\work\py_excel\pandas_sample\aggregate\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009E0DC5-58F7-40A6-AF4F-B5B88BBFB547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408CD583-2ED4-4276-A95A-2B101245E670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="2303" windowWidth="16920" windowHeight="8055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
-  <si>
-    <t>山田</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>a</t>
     <phoneticPr fontId="1"/>
@@ -52,13 +45,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>高橋</t>
-    <rPh sb="0" eb="2">
-      <t>タカハシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>防止</t>
     <rPh sb="0" eb="2">
       <t>ボウシ</t>
@@ -83,6 +69,38 @@
   </si>
   <si>
     <t>item</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマホ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イヤホン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yamada</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>takahashi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sato</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>goto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ito</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -408,49 +426,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G6"/>
+  <dimension ref="B1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
       </c>
       <c r="G2">
         <v>1000</v>
@@ -458,10 +476,10 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>345</v>
@@ -469,10 +487,10 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>100000</v>
@@ -480,10 +498,10 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>3242432</v>
@@ -491,13 +509,46 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>9469385</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>452124</v>
       </c>
     </row>
   </sheetData>

--- a/pandas_sample/aggregate/input/sample.xlsx
+++ b/pandas_sample/aggregate/input/sample.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonon\work\py_excel\pandas_sample\aggregate\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408CD583-2ED4-4276-A95A-2B101245E670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002FEF5D-3643-470D-B3C9-D1F6311B0404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="2303" windowWidth="16920" windowHeight="8055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>a</t>
     <phoneticPr fontId="1"/>
@@ -101,6 +110,10 @@
   </si>
   <si>
     <t>ito</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>formula</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -426,15 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G9"/>
+  <dimension ref="B1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:8">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -453,8 +466,11 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="2:7">
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8">
       <c r="B2" t="s">
         <v>12</v>
       </c>
@@ -473,8 +489,12 @@
       <c r="G2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="2:7">
+      <c r="H2" t="str">
+        <f>IF(B2&lt;&gt;"", B2, "UNDEFINED")</f>
+        <v>yamada</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -485,7 +505,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:8">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -496,7 +516,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:8">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -507,7 +527,7 @@
         <v>3242432</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:8">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -518,7 +538,7 @@
         <v>9469385</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:8">
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -529,7 +549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:8">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -540,7 +560,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:8">
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -549,6 +569,14 @@
       </c>
       <c r="G9">
         <v>452124</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>8545</v>
       </c>
     </row>
   </sheetData>
